--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_TechGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_TechGlobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="7"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG007X" sheetId="35" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="120">
   <si>
     <t>STT</t>
   </si>
@@ -265,6 +265,150 @@
   </si>
   <si>
     <t>TG102</t>
+  </si>
+  <si>
+    <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>Lock: 014.225.007.016,01202</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi module GSM/GPS</t>
+  </si>
+  <si>
+    <t>Thay module GSM/GPS</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>Không khởi động được thiết bị</t>
+  </si>
+  <si>
+    <t>Lock: 123.031.030.101,09207</t>
+  </si>
+  <si>
+    <t>Nạp lại FW</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>LE.1.00.---01.180710</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.121.024,09207</t>
+  </si>
+  <si>
+    <t>Connector nguồn bị lỗi</t>
+  </si>
+  <si>
+    <t>Thay connector, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>NG,NCFW</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.121.016,09207</t>
+  </si>
+  <si>
+    <t>Thiết bị không chốt GSM</t>
+  </si>
+  <si>
+    <t>Thay mosfet</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16060</t>
+  </si>
+  <si>
+    <t>Lỗi module GSM/GPS</t>
+  </si>
+  <si>
+    <t>Thiết bị không chốt GPS</t>
+  </si>
+  <si>
+    <t>123.031.043.235,09207</t>
+  </si>
+  <si>
+    <t>Xử lý lại khối anten GPS</t>
+  </si>
+  <si>
+    <t>Thiết bị có dấu hiệu oxi hóa, gây lỗi module GSM/GPS</t>
+  </si>
+  <si>
+    <t>Lock: 014.225.007.016,09207</t>
+  </si>
+  <si>
+    <t>LE.1.00.---05.190404</t>
+  </si>
+  <si>
+    <t>Lock: 123.31.30.77,01202</t>
+  </si>
+  <si>
+    <t>Thiết bị chập nguồn</t>
+  </si>
+  <si>
+    <t>Thay tụ lọc nguồn, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Lock; 123.031.030.077,01202</t>
+  </si>
+  <si>
+    <t>Thiết bị mất nguồn module GSM/GPS</t>
+  </si>
+  <si>
+    <t>Mạch thiết bị oxi hóa khối nguồn</t>
+  </si>
+  <si>
+    <t>LE.1.00.---06.191010</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.121.016,01102</t>
+  </si>
+  <si>
+    <t>Xử lý lại khối nguồn, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>LE.1.00.---01.181005</t>
+  </si>
+  <si>
+    <t>Thiết bị chập module GSM/GPS</t>
+  </si>
+  <si>
+    <t>VI.2.00.---19.200527</t>
+  </si>
+  <si>
+    <t>Lcok: 203.162.121.026,01102</t>
+  </si>
+  <si>
+    <t>Mất nguồn module GSM</t>
+  </si>
+  <si>
+    <t>Xử lý lại nguồn module GSM, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>TG.007S.---01.180115</t>
+  </si>
+  <si>
+    <t>Lock: caligps.vn,16873</t>
+  </si>
+  <si>
+    <t>Thay diode quá</t>
+  </si>
+  <si>
+    <t>TG.007S.---01.170612</t>
+  </si>
+  <si>
+    <t>Lock: 112.078.011.006,13368</t>
+  </si>
+  <si>
+    <t>Thay diode quá, nâng cấp FW</t>
   </si>
 </sst>
 </file>
@@ -1033,8 +1177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView showZeros="0" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1261,16 +1405,32 @@
         <v>64</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="61"/>
+      <c r="I6" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" s="61" t="s">
+        <v>72</v>
+      </c>
       <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="M6" s="40" t="s">
+        <v>89</v>
+      </c>
       <c r="N6" s="41"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="73"/>
       <c r="U6" s="75" t="s">
@@ -1300,16 +1460,34 @@
         <v>64</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="I7" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>100</v>
+      </c>
       <c r="N7" s="41"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="O7" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>86</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="73"/>
       <c r="U7" s="76"/>
@@ -1337,16 +1515,32 @@
         <v>64</v>
       </c>
       <c r="H8" s="52"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="60"/>
+      <c r="I8" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" s="60" t="s">
+        <v>72</v>
+      </c>
       <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="41"/>
+      <c r="M8" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" s="41">
+        <v>250000</v>
+      </c>
       <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="P8" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>35</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="73"/>
       <c r="U8" s="76"/>
@@ -1374,16 +1568,30 @@
         <v>67</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
+      <c r="I9" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>72</v>
+      </c>
       <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="M9" s="40" t="s">
+        <v>75</v>
+      </c>
       <c r="N9" s="1"/>
       <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="P9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>35</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="73"/>
       <c r="U9" s="76"/>
@@ -1411,16 +1619,32 @@
         <v>64</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="1"/>
+      <c r="I10" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="1"/>
+      <c r="M10" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="N10" s="51">
+        <v>250000</v>
+      </c>
       <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="P10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>35</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="73"/>
       <c r="U10" s="76"/>
@@ -1448,16 +1672,32 @@
         <v>67</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="1"/>
+      <c r="I11" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
+      <c r="M11" s="40" t="s">
+        <v>94</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
+      <c r="O11" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="73"/>
       <c r="U11" s="76"/>
@@ -1485,16 +1725,32 @@
         <v>67</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="1"/>
+      <c r="I12" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="M12" s="40" t="s">
+        <v>94</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="38"/>
+      <c r="O12" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="73"/>
       <c r="U12" s="75" t="s">
@@ -1524,16 +1780,32 @@
         <v>67</v>
       </c>
       <c r="H13" s="13"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="1"/>
+      <c r="I13" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="K13" s="1"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="1"/>
+      <c r="L13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="10"/>
+      <c r="O13" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="73"/>
       <c r="U13" s="76"/>
@@ -1561,16 +1833,34 @@
         <v>64</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="1"/>
+      <c r="I14" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="38"/>
+      <c r="M14" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="N14" s="51">
+        <v>12000</v>
+      </c>
+      <c r="O14" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R14" s="38" t="s">
+        <v>86</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="73"/>
       <c r="U14" s="76"/>
@@ -1750,7 +2040,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -1782,7 +2072,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -1814,7 +2104,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -1963,7 +2253,7 @@
       </c>
       <c r="V27" s="10">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W27" s="14"/>
     </row>
@@ -1995,7 +2285,7 @@
       </c>
       <c r="V28" s="10">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W28" s="14"/>
     </row>
@@ -2027,7 +2317,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -2091,7 +2381,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -2123,7 +2413,7 @@
       </c>
       <c r="V32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="14"/>
     </row>
@@ -2219,7 +2509,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -2283,7 +2573,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -2636,7 +2926,7 @@
       <c r="S48" s="4"/>
       <c r="T48" s="35">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U48" s="10" t="s">
         <v>57</v>
@@ -2862,13 +3152,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2880,6 +3163,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2890,8 +3180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3118,16 +3408,34 @@
         <v>64</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="I6" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K6" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>106</v>
+      </c>
       <c r="N6" s="41"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>86</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="73"/>
       <c r="U6" s="75" t="s">
@@ -3157,16 +3465,32 @@
         <v>64</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="40"/>
+      <c r="I7" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>77</v>
+      </c>
       <c r="K7" s="61"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="L7" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>79</v>
+      </c>
       <c r="N7" s="41"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="O7" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="73"/>
       <c r="U7" s="76"/>
@@ -3194,16 +3518,32 @@
         <v>64</v>
       </c>
       <c r="H8" s="52"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="60"/>
+      <c r="I8" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="K8" s="60" t="s">
+        <v>107</v>
+      </c>
       <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="41"/>
+      <c r="M8" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" s="41">
+        <v>250000</v>
+      </c>
       <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="P8" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="73"/>
       <c r="U8" s="76"/>
@@ -3231,16 +3571,32 @@
         <v>64</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
+      <c r="I9" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>72</v>
+      </c>
       <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="M9" s="40" t="s">
+        <v>89</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="O9" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="73"/>
       <c r="U9" s="76"/>
@@ -3567,7 +3923,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -3599,7 +3955,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -3631,7 +3987,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -3844,7 +4200,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -3940,7 +4296,7 @@
       </c>
       <c r="V32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="14"/>
     </row>
@@ -4036,7 +4392,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -4100,7 +4456,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4453,7 +4809,7 @@
       <c r="S48" s="4"/>
       <c r="T48" s="35">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="10" t="s">
         <v>57</v>
@@ -4679,13 +5035,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4697,6 +5046,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4707,8 +5063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showZeros="0" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4935,17 +5291,35 @@
         <v>64</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="61"/>
+      <c r="I6" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K6" s="61" t="s">
+        <v>109</v>
+      </c>
       <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="M6" s="40" t="s">
+        <v>112</v>
+      </c>
       <c r="N6" s="41"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="4"/>
+      <c r="O6" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="T6" s="71"/>
       <c r="U6" s="75" t="s">
         <v>18</v>
@@ -5424,7 +5798,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -5637,7 +6011,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -5829,7 +6203,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -5893,7 +6267,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -6472,6 +6846,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6483,13 +6864,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6500,8 +6874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="J4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6767,16 +7141,36 @@
         <v>64</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="I7" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="L7" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="N7" s="41">
+        <v>12000</v>
+      </c>
+      <c r="O7" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>86</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="73"/>
       <c r="U7" s="76"/>
@@ -6804,16 +7198,34 @@
         <v>64</v>
       </c>
       <c r="H8" s="52"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="60"/>
+      <c r="I8" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" s="60" t="s">
+        <v>114</v>
+      </c>
       <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="M8" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="N8" s="41">
+        <v>12000</v>
+      </c>
+      <c r="O8" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="73"/>
       <c r="U8" s="76"/>
@@ -7201,7 +7613,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -7233,7 +7645,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -7446,7 +7858,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -7638,7 +8050,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -7702,7 +8114,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -8281,13 +8693,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8299,6 +8704,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10074,13 +10486,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10092,6 +10497,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11931,13 +12343,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -11949,6 +12354,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13732,13 +14144,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -13750,6 +14155,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13760,7 +14172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
@@ -15517,13 +15929,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -15535,6 +15940,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_TechGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_TechGlobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TG007X" sheetId="35" r:id="rId1"/>
@@ -832,22 +832,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -869,6 +854,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1177,8 +1177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1210,43 +1210,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -1291,58 +1291,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -1367,23 +1367,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="74" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="73"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="73"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="73"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1594,7 +1594,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="73"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1700,7 +1700,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="73"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1808,7 +1808,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="73"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1863,7 +1863,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1892,7 +1892,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1921,7 +1921,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3152,6 +3152,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3163,13 +3170,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3181,7 +3181,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="B6" sqref="B6:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3213,43 +3213,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -3294,58 +3294,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -3370,23 +3370,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="74" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3438,7 +3438,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="73"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3493,7 +3493,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="73"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3546,7 +3546,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="73"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3599,7 +3599,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="73"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3628,7 +3628,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3657,7 +3657,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3686,7 +3686,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="73"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3717,7 +3717,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="73"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3746,7 +3746,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3775,7 +3775,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3804,7 +3804,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5035,6 +5035,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5046,13 +5053,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5063,8 +5063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5096,43 +5096,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -5177,58 +5177,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -5253,23 +5253,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="70" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5321,7 +5321,7 @@
         <v>113</v>
       </c>
       <c r="T6" s="71"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5352,7 +5352,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="71"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5381,7 +5381,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="71"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5410,7 +5410,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="71"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5439,7 +5439,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="71"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5468,7 +5468,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="71"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5497,7 +5497,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="71"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5528,7 +5528,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="71"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5557,7 +5557,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="71"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5586,7 +5586,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5615,7 +5615,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6846,13 +6846,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6864,6 +6857,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6874,8 +6874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="J4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView showZeros="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6907,43 +6907,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -6988,58 +6988,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -7064,23 +7064,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="74" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7114,7 +7114,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="73"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7173,7 +7173,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="73"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7228,7 +7228,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="73"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7257,7 +7257,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="73"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7286,7 +7286,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7315,7 +7315,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7344,7 +7344,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="73"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7375,7 +7375,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="73"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7404,7 +7404,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7433,7 +7433,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7462,7 +7462,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8693,6 +8693,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8704,13 +8711,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8721,8 +8721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8754,43 +8754,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -8835,58 +8835,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -8911,23 +8911,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="74" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8961,7 +8961,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="73"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -8992,7 +8992,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="73"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -9021,7 +9021,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="73"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -9050,7 +9050,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="73"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -9079,7 +9079,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -9108,7 +9108,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -9137,7 +9137,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="73"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -9168,7 +9168,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="73"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -9197,7 +9197,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -9226,7 +9226,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -9255,7 +9255,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -10486,6 +10486,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10497,13 +10504,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10515,7 +10515,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B6" sqref="B6:S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10547,43 +10547,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -10628,58 +10628,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -10704,23 +10704,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="74" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10754,7 +10754,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="73"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -10793,7 +10793,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="73"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -10830,7 +10830,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="73"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -10867,7 +10867,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="73"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -10904,7 +10904,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -10941,7 +10941,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -10978,7 +10978,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="73"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -11017,7 +11017,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="73"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11054,7 +11054,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11083,7 +11083,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11112,7 +11112,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -12343,6 +12343,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12354,13 +12361,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12371,8 +12371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12404,43 +12404,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -12485,58 +12485,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -12561,23 +12561,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="74" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12611,7 +12611,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="73"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -12650,7 +12650,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="73"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -12679,7 +12679,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="73"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -12708,7 +12708,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="73"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -12737,7 +12737,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -12766,7 +12766,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -12795,7 +12795,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="73"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -12826,7 +12826,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="73"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -12855,7 +12855,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -12884,7 +12884,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -12913,7 +12913,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -14144,6 +14144,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14155,13 +14162,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14205,43 +14205,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -14286,58 +14286,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="87" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -14362,23 +14362,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14404,7 +14404,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -14435,7 +14435,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="84"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -14464,7 +14464,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="84"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -14493,7 +14493,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="84"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -14522,7 +14522,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="84"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -14551,7 +14551,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="84"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -14580,7 +14580,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="83" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -14611,7 +14611,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="84"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -14640,7 +14640,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="84"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -14669,7 +14669,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="84"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -14698,7 +14698,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="85"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -15929,6 +15929,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -15940,13 +15947,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_TechGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_TechGlobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="6"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TG007X" sheetId="35" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="148">
   <si>
     <t>STT</t>
   </si>
@@ -409,6 +409,90 @@
   </si>
   <si>
     <t>Thay diode quá, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.121.026,09107</t>
+  </si>
+  <si>
+    <t>Thay module GSM</t>
+  </si>
+  <si>
+    <t>SE.4.00.---06.200630</t>
+  </si>
+  <si>
+    <t>Lock: 115.078.100.208,16873</t>
+  </si>
+  <si>
+    <t>Thiết bị chập nguồn, reset liên tục</t>
+  </si>
+  <si>
+    <t>Thay diode quá áp, nạp lại FW</t>
+  </si>
+  <si>
+    <t>NG,MCH</t>
+  </si>
+  <si>
+    <t>ID cũ: 000001204018255</t>
+  </si>
+  <si>
+    <t>vnetgps.com,169,09004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TG.007.---16.051017 </t>
+  </si>
+  <si>
+    <t>Lock: 124.158.005.014,16870</t>
+  </si>
+  <si>
+    <t>Kiểm tra dịch vụ server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TG.007.---15.130417 </t>
+  </si>
+  <si>
+    <t>Lock: 203.162.121.026,09007</t>
+  </si>
+  <si>
+    <t>Thay diode quá áp, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>203.162.121.025,09007</t>
+  </si>
+  <si>
+    <t>Thiết bị hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>Test lại thiết bị, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Test lại thiết bị</t>
+  </si>
+  <si>
+    <t>Hàn lại anten GPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TG.007.---10.060116 </t>
+  </si>
+  <si>
+    <t>Thiết bị reset liện tục</t>
+  </si>
+  <si>
+    <t>Hàn lại linh kiện, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>LK,NCFW</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.121.025,09007</t>
+  </si>
+  <si>
+    <t>Thay thạch anh</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.121.024,09007</t>
+  </si>
+  <si>
+    <t>Hàn lại đế chân anten GPS</t>
   </si>
 </sst>
 </file>
@@ -832,7 +916,22 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -854,21 +953,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1178,7 +1262,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S14"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1210,43 +1294,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -1291,58 +1375,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -1367,23 +1451,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="74" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1433,7 +1517,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="73"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1490,7 +1574,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="73"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1543,7 +1627,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="73"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1594,7 +1678,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="73"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1647,7 +1731,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1700,7 +1784,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1753,7 +1837,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="73"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1808,7 +1892,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="73"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1863,7 +1947,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1892,7 +1976,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1921,7 +2005,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3152,13 +3236,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3170,6 +3247,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3213,43 +3297,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -3294,58 +3378,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -3370,23 +3454,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="74" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3438,7 +3522,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="73"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3493,7 +3577,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="73"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3546,7 +3630,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="73"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3599,7 +3683,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="73"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3628,7 +3712,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3657,7 +3741,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3686,7 +3770,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="73"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3717,7 +3801,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="73"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3746,7 +3830,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3775,7 +3859,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3804,7 +3888,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5035,13 +5119,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5053,6 +5130,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5096,43 +5180,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -5177,58 +5261,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -5253,23 +5337,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="70" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5321,7 +5405,7 @@
         <v>113</v>
       </c>
       <c r="T6" s="71"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5352,7 +5436,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="71"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5381,7 +5465,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="71"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5410,7 +5494,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="71"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5439,7 +5523,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="71"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5468,7 +5552,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="71"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5497,7 +5581,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="71"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5528,7 +5612,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="71"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5557,7 +5641,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="71"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5586,7 +5670,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5615,7 +5699,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6846,6 +6930,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6857,13 +6948,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6875,7 +6959,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S8"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6907,43 +6991,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -6988,58 +7072,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -7064,23 +7148,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="74" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7102,19 +7186,35 @@
         <v>64</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="61"/>
+      <c r="I6" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="61" t="s">
+        <v>114</v>
+      </c>
       <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="41"/>
+      <c r="M6" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="N6" s="41">
+        <v>275000</v>
+      </c>
       <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="P6" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>35</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="73"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7173,7 +7273,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="73"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7228,7 +7328,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="73"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7257,7 +7357,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="73"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7286,7 +7386,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7315,7 +7415,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7344,7 +7444,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="73"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7375,7 +7475,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="73"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7404,7 +7504,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7433,7 +7533,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7462,7 +7562,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -7613,7 +7713,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -7794,7 +7894,7 @@
       </c>
       <c r="V27" s="10">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="14"/>
     </row>
@@ -8114,7 +8214,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -8693,13 +8793,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8711,6 +8804,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8721,8 +8821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S7"/>
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8754,43 +8854,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -8835,58 +8935,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -8911,23 +9011,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="74" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8948,20 +9048,36 @@
       <c r="G6" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="1"/>
+      <c r="H6" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="I6" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="K6" s="61"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="L6" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>125</v>
+      </c>
       <c r="N6" s="41"/>
       <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="P6" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>126</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="73"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -8992,7 +9108,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="73"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -9021,7 +9137,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="73"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -9050,7 +9166,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="73"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -9079,7 +9195,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -9108,7 +9224,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -9137,7 +9253,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="73"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -9168,7 +9284,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="73"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -9197,7 +9313,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -9226,7 +9342,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -9255,7 +9371,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9438,7 +9554,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -9651,7 +9767,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -9747,7 +9863,7 @@
       </c>
       <c r="V32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="14"/>
     </row>
@@ -9907,7 +10023,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -10486,13 +10602,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10504,6 +10613,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10514,8 +10630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S15"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10547,43 +10663,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -10628,58 +10744,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -10704,23 +10820,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="74" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10735,26 +10851,44 @@
         <v>70</v>
       </c>
       <c r="E6" s="39">
-        <v>867330065866869</v>
+        <v>861693035609346</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="41"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="N6" s="41">
+        <v>12000</v>
+      </c>
       <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="P6" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>86</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="73"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -10781,19 +10915,35 @@
         <v>64</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="61"/>
+      <c r="I7" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="61" t="s">
+        <v>129</v>
+      </c>
       <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="41"/>
+      <c r="M7" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="N7" s="41">
+        <v>450000</v>
+      </c>
       <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="P7" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>35</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="73"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -10818,19 +10968,33 @@
         <v>64</v>
       </c>
       <c r="H8" s="52"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="60"/>
+      <c r="I8" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" s="60" t="s">
+        <v>129</v>
+      </c>
       <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="M8" s="40" t="s">
+        <v>139</v>
+      </c>
       <c r="N8" s="41"/>
       <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="P8" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="73"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -10854,20 +11018,36 @@
       <c r="G9" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
+      <c r="H9" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I9" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>129</v>
+      </c>
       <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="M9" s="40" t="s">
+        <v>138</v>
+      </c>
       <c r="N9" s="1"/>
       <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="P9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="73"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -10892,19 +11072,33 @@
         <v>64</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="1"/>
+      <c r="I10" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
+      <c r="M10" s="40" t="s">
+        <v>145</v>
+      </c>
       <c r="N10" s="1"/>
       <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="P10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -10929,19 +11123,35 @@
         <v>64</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
+      <c r="I11" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>142</v>
+      </c>
       <c r="N11" s="1"/>
       <c r="O11" s="40"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
+      <c r="P11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>143</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -10966,19 +11176,33 @@
         <v>64</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="1"/>
+      <c r="I12" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="M12" s="40" t="s">
+        <v>147</v>
+      </c>
       <c r="N12" s="1"/>
       <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="38"/>
+      <c r="P12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="73"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -11005,19 +11229,33 @@
         <v>64</v>
       </c>
       <c r="H13" s="13"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="I13" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="L13" s="40"/>
-      <c r="M13" s="1"/>
+      <c r="M13" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="N13" s="1"/>
       <c r="O13" s="40"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="10"/>
+      <c r="P13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="73"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11042,19 +11280,35 @@
         <v>64</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
+      <c r="I14" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="J14" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="M14" s="40" t="s">
+        <v>137</v>
+      </c>
       <c r="N14" s="1"/>
       <c r="O14" s="40"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="38"/>
+      <c r="P14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11083,7 +11337,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11112,7 +11366,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -11231,7 +11485,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -11263,7 +11517,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -11295,7 +11549,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -11444,7 +11698,7 @@
       </c>
       <c r="V27" s="10">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="14"/>
     </row>
@@ -11476,7 +11730,7 @@
       </c>
       <c r="V28" s="10">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W28" s="14"/>
     </row>
@@ -11508,7 +11762,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -11572,7 +11826,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -11700,7 +11954,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -11732,7 +11986,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -11764,7 +12018,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -12343,13 +12597,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12361,6 +12608,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12371,8 +12625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView showZeros="0" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12404,43 +12658,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -12485,58 +12739,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -12561,23 +12815,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="74" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12599,19 +12853,33 @@
         <v>64</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="1"/>
+      <c r="I6" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="K6" s="61"/>
       <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="M6" s="40" t="s">
+        <v>79</v>
+      </c>
       <c r="N6" s="41"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="73"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -12623,20 +12891,12 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="37">
-        <v>44356</v>
-      </c>
+      <c r="B7" s="37"/>
       <c r="C7" s="37"/>
-      <c r="D7" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="39">
-        <v>864161026909569</v>
-      </c>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
       <c r="F7" s="38"/>
-      <c r="G7" s="38" t="s">
-        <v>64</v>
-      </c>
+      <c r="G7" s="38"/>
       <c r="H7" s="38"/>
       <c r="I7" s="50"/>
       <c r="J7" s="40"/>
@@ -12650,7 +12910,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="73"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -12679,7 +12939,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="73"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -12708,7 +12968,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="73"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -12737,7 +12997,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -12766,7 +13026,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -12795,7 +13055,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="73"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -12826,7 +13086,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="73"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -12855,7 +13115,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -12884,7 +13144,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -12913,7 +13173,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -13032,7 +13292,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -13405,7 +13665,7 @@
       </c>
       <c r="V32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="14"/>
     </row>
@@ -13565,7 +13825,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -14144,13 +14404,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14162,6 +14415,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14205,43 +14465,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -14286,58 +14546,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -14362,23 +14622,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14404,7 +14664,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="75" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -14435,7 +14695,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="84"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -14464,7 +14724,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="84"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -14493,7 +14753,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="84"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -14522,7 +14782,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="84"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -14551,7 +14811,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="84"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -14580,7 +14840,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -14611,7 +14871,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="84"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -14640,7 +14900,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="84"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -14669,7 +14929,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="84"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -14698,7 +14958,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="85"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -15929,13 +16189,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -15947,6 +16200,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_TechGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_TechGlobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="5"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TG007X" sheetId="35" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="153">
   <si>
     <t>STT</t>
   </si>
@@ -303,9 +303,6 @@
     <t>Connector nguồn bị lỗi</t>
   </si>
   <si>
-    <t>Thay connector, nâng cấp FW</t>
-  </si>
-  <si>
     <t>PC+PM</t>
   </si>
   <si>
@@ -494,6 +491,24 @@
   <si>
     <t>Hàn lại đế chân anten GPS</t>
   </si>
+  <si>
+    <t>Thay connector,diode quá áp, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Khách báo không sửa</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Imei mới: 868183033790887</t>
+  </si>
+  <si>
+    <t>Imei mới: 862846048309192</t>
+  </si>
+  <si>
+    <t>Imei mới: 868183033786554</t>
+  </si>
 </sst>
 </file>
 
@@ -570,7 +585,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -586,6 +601,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,7 +713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -916,22 +937,37 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -953,6 +989,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1261,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView showZeros="0" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1294,43 +1345,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -1375,58 +1426,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="85"/>
+      <c r="M4" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="97" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="85" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -1451,23 +1502,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="85"/>
       <c r="K5" s="74" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="97"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1490,17 +1541,17 @@
       </c>
       <c r="H6" s="38"/>
       <c r="I6" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="K6" s="61" t="s">
         <v>72</v>
       </c>
       <c r="L6" s="40"/>
       <c r="M6" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N6" s="41"/>
       <c r="O6" s="40" t="s">
@@ -1517,7 +1568,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="73"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="93" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1545,19 +1596,19 @@
       </c>
       <c r="H7" s="38"/>
       <c r="I7" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="J7" s="40" t="s">
-        <v>99</v>
-      </c>
       <c r="K7" s="61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L7" s="61" t="s">
         <v>72</v>
       </c>
       <c r="M7" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N7" s="41"/>
       <c r="O7" s="40" t="s">
@@ -1567,14 +1618,14 @@
         <v>76</v>
       </c>
       <c r="Q7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R7" s="38" t="s">
         <v>85</v>
-      </c>
-      <c r="R7" s="38" t="s">
-        <v>86</v>
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="73"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="94"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1598,12 +1649,14 @@
       <c r="G8" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="52"/>
+      <c r="H8" s="38" t="s">
+        <v>150</v>
+      </c>
       <c r="I8" s="50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J8" s="40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K8" s="60" t="s">
         <v>72</v>
@@ -1615,7 +1668,9 @@
       <c r="N8" s="41">
         <v>250000</v>
       </c>
-      <c r="O8" s="40"/>
+      <c r="O8" s="40" t="s">
+        <v>80</v>
+      </c>
       <c r="P8" s="40" t="s">
         <v>76</v>
       </c>
@@ -1627,7 +1682,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="73"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="94"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1651,12 +1706,14 @@
       <c r="G9" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="I9" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="40" t="s">
         <v>90</v>
-      </c>
-      <c r="J9" s="40" t="s">
-        <v>91</v>
       </c>
       <c r="K9" s="40" t="s">
         <v>72</v>
@@ -1666,7 +1723,9 @@
         <v>75</v>
       </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
+      <c r="O9" s="40" t="s">
+        <v>80</v>
+      </c>
       <c r="P9" s="1" t="s">
         <v>76</v>
       </c>
@@ -1678,7 +1737,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="73"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="94"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1731,7 +1790,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="94"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1757,17 +1816,17 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J11" s="40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>72</v>
       </c>
       <c r="L11" s="40"/>
       <c r="M11" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="40" t="s">
@@ -1784,7 +1843,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="94"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1810,17 +1869,17 @@
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J12" s="40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>72</v>
       </c>
       <c r="L12" s="40"/>
       <c r="M12" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="40" t="s">
@@ -1837,7 +1896,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="73"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="93" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1892,7 +1951,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="73"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="94"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1928,7 +1987,7 @@
       </c>
       <c r="L14" s="40"/>
       <c r="M14" s="40" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
       <c r="N14" s="51">
         <v>12000</v>
@@ -1940,14 +1999,14 @@
         <v>76</v>
       </c>
       <c r="Q14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="R14" s="38" t="s">
         <v>85</v>
-      </c>
-      <c r="R14" s="38" t="s">
-        <v>86</v>
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="94"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1976,7 +2035,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="94"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -2005,7 +2064,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="95"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3236,6 +3295,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3247,13 +3313,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3264,8 +3323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S9"/>
+    <sheetView showZeros="0" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3297,43 +3356,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -3378,58 +3437,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="85"/>
+      <c r="M4" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="97" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="85" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -3454,23 +3513,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="85"/>
       <c r="K5" s="74" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="97"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3493,19 +3552,19 @@
       </c>
       <c r="H6" s="38"/>
       <c r="I6" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K6" s="61" t="s">
         <v>103</v>
-      </c>
-      <c r="K6" s="61" t="s">
-        <v>104</v>
       </c>
       <c r="L6" s="40" t="s">
         <v>72</v>
       </c>
       <c r="M6" s="40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N6" s="41"/>
       <c r="O6" s="40" t="s">
@@ -3515,14 +3574,14 @@
         <v>76</v>
       </c>
       <c r="Q6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R6" s="38" t="s">
         <v>85</v>
-      </c>
-      <c r="R6" s="38" t="s">
-        <v>86</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="73"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="93" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3550,7 +3609,7 @@
       </c>
       <c r="H7" s="38"/>
       <c r="I7" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J7" s="40" t="s">
         <v>77</v>
@@ -3577,60 +3636,60 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="73"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="94"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
       <c r="W7" s="73"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="75">
         <v>3</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8" s="76">
         <v>44356</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38" t="s">
+      <c r="C8" s="76"/>
+      <c r="D8" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="78">
         <v>867717030623665</v>
       </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38" t="s">
+      <c r="F8" s="77"/>
+      <c r="G8" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="52"/>
-      <c r="I8" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="J8" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="K8" s="60" t="s">
+      <c r="H8" s="83"/>
+      <c r="I8" s="79" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="N8" s="41">
-        <v>250000</v>
-      </c>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40" t="s">
+      <c r="K8" s="84" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="N8" s="81"/>
+      <c r="O8" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="P8" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="Q8" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="R8" s="38" t="s">
+      <c r="R8" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="S8" s="4"/>
+      <c r="S8" s="75"/>
       <c r="T8" s="73"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="94"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3656,17 +3715,17 @@
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" s="40" t="s">
         <v>101</v>
-      </c>
-      <c r="J9" s="40" t="s">
-        <v>102</v>
       </c>
       <c r="K9" s="40" t="s">
         <v>72</v>
       </c>
       <c r="L9" s="40"/>
       <c r="M9" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="40" t="s">
@@ -3683,7 +3742,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="73"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="94"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3712,7 +3771,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="94"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3741,7 +3800,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="94"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3770,7 +3829,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="73"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="93" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3801,7 +3860,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="73"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="94"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3830,7 +3889,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="94"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3859,7 +3918,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="94"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3888,7 +3947,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="95"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4658,7 +4717,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -5119,6 +5178,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5130,13 +5196,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5147,8 +5206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S6"/>
+    <sheetView showZeros="0" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5180,43 +5239,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -5261,58 +5320,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="85"/>
+      <c r="M4" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="97" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="85" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -5337,23 +5396,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="85"/>
       <c r="K5" s="70" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="97"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5376,17 +5435,17 @@
       </c>
       <c r="H6" s="38"/>
       <c r="I6" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="K6" s="61" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L6" s="40"/>
       <c r="M6" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N6" s="41"/>
       <c r="O6" s="40" t="s">
@@ -5396,16 +5455,16 @@
         <v>76</v>
       </c>
       <c r="Q6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R6" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="R6" s="38" t="s">
-        <v>86</v>
-      </c>
       <c r="S6" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T6" s="71"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="93" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5436,7 +5495,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="71"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="94"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5465,7 +5524,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="71"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="94"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5494,7 +5553,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="71"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="94"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5523,7 +5582,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="71"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="94"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5552,7 +5611,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="71"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="94"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5581,7 +5640,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="71"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="93" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5612,7 +5671,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="71"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="94"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5641,7 +5700,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="71"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="94"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5670,7 +5729,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="94"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5699,7 +5758,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="95"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6930,13 +6989,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6948,6 +7000,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6959,7 +7018,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6991,43 +7050,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -7072,58 +7131,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="85"/>
+      <c r="M4" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="97" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="85" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -7148,23 +7207,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="85"/>
       <c r="K5" s="74" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="97"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7185,24 +7244,28 @@
       <c r="G6" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="38"/>
+      <c r="H6" s="38" t="s">
+        <v>151</v>
+      </c>
       <c r="I6" s="50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K6" s="61" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L6" s="40"/>
       <c r="M6" s="40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N6" s="41">
         <v>275000</v>
       </c>
-      <c r="O6" s="40"/>
+      <c r="O6" s="40" t="s">
+        <v>80</v>
+      </c>
       <c r="P6" s="40" t="s">
         <v>76</v>
       </c>
@@ -7214,7 +7277,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="73"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="93" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7242,19 +7305,19 @@
       </c>
       <c r="H7" s="38"/>
       <c r="I7" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="L7" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="M7" s="40" t="s">
         <v>118</v>
-      </c>
-      <c r="J7" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="K7" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="L7" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="M7" s="40" t="s">
-        <v>119</v>
       </c>
       <c r="N7" s="41">
         <v>12000</v>
@@ -7266,14 +7329,14 @@
         <v>76</v>
       </c>
       <c r="Q7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R7" s="38" t="s">
         <v>85</v>
-      </c>
-      <c r="R7" s="38" t="s">
-        <v>86</v>
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="73"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="94"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7299,17 +7362,17 @@
       </c>
       <c r="H8" s="52"/>
       <c r="I8" s="50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J8" s="40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K8" s="60" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L8" s="40"/>
       <c r="M8" s="40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N8" s="41">
         <v>12000</v>
@@ -7328,7 +7391,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="73"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="94"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7357,7 +7420,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="73"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="94"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7386,7 +7449,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="94"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7415,7 +7478,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="94"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7444,7 +7507,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="73"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="93" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7475,7 +7538,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="73"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="94"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7504,7 +7567,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="94"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7533,7 +7596,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="94"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7562,7 +7625,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="95"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8793,6 +8856,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8804,13 +8874,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8821,8 +8884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView showZeros="0" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8854,43 +8917,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -8935,58 +8998,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="85"/>
+      <c r="M4" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="97" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="85" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -9011,23 +9074,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="85"/>
       <c r="K5" s="74" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="97"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9049,20 +9112,20 @@
         <v>64</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I6" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="K6" s="61"/>
       <c r="L6" s="40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M6" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N6" s="41"/>
       <c r="O6" s="40"/>
@@ -9070,14 +9133,14 @@
         <v>76</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R6" s="38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="73"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="93" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -9108,7 +9171,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="73"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="94"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -9137,7 +9200,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="73"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="94"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -9166,7 +9229,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="73"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="94"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -9195,7 +9258,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="94"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -9224,7 +9287,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="94"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -9253,7 +9316,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="73"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="93" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -9284,7 +9347,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="73"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="94"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -9313,7 +9376,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="94"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -9342,7 +9405,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="94"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -9371,7 +9434,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="95"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -10602,6 +10665,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10613,13 +10683,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10630,8 +10693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView showZeros="0" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10663,43 +10726,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -10744,58 +10807,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="85"/>
+      <c r="M4" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="97" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="85" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -10820,23 +10883,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="85"/>
       <c r="K5" s="74" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="97"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10859,19 +10922,19 @@
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="M6" s="40" t="s">
         <v>133</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K6" s="61" t="s">
-        <v>132</v>
-      </c>
-      <c r="L6" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="M6" s="40" t="s">
-        <v>134</v>
       </c>
       <c r="N6" s="41">
         <v>12000</v>
@@ -10884,11 +10947,11 @@
         <v>18</v>
       </c>
       <c r="R6" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="73"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="93" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -10897,53 +10960,53 @@
       <c r="W6" s="73"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="75">
         <v>2</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="76">
         <v>44356</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38" t="s">
+      <c r="C7" s="76"/>
+      <c r="D7" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="78">
         <v>867330023800199</v>
       </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38" t="s">
+      <c r="F7" s="77"/>
+      <c r="G7" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="38"/>
-      <c r="I7" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="J7" s="40" t="s">
+      <c r="H7" s="77"/>
+      <c r="I7" s="79" t="s">
+        <v>134</v>
+      </c>
+      <c r="J7" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="61" t="s">
-        <v>129</v>
-      </c>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="N7" s="41">
-        <v>450000</v>
-      </c>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40" t="s">
+      <c r="K7" s="80" t="s">
+        <v>128</v>
+      </c>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="N7" s="81"/>
+      <c r="O7" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="P7" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="Q7" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="R7" s="38" t="s">
+      <c r="R7" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="S7" s="4"/>
+      <c r="S7" s="75"/>
       <c r="T7" s="73"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="94"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -10969,17 +11032,17 @@
       </c>
       <c r="H8" s="52"/>
       <c r="I8" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J8" s="40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K8" s="60" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L8" s="40"/>
       <c r="M8" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N8" s="41"/>
       <c r="O8" s="40"/>
@@ -10994,7 +11057,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="73"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="94"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -11019,20 +11082,20 @@
         <v>64</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I9" s="50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J9" s="40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K9" s="40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L9" s="40"/>
       <c r="M9" s="40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="40"/>
@@ -11047,7 +11110,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="73"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="94"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -11073,17 +11136,17 @@
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L10" s="40"/>
       <c r="M10" s="40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="40"/>
@@ -11098,7 +11161,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="94"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -11124,19 +11187,19 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J11" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="M11" s="40" t="s">
         <v>141</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="L11" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="M11" s="40" t="s">
-        <v>142</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="40"/>
@@ -11144,14 +11207,14 @@
         <v>76</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R11" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="94"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -11177,17 +11240,17 @@
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J12" s="40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L12" s="40"/>
       <c r="M12" s="40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="40"/>
@@ -11202,7 +11265,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="73"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="93" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -11230,17 +11293,17 @@
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L13" s="40"/>
       <c r="M13" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="40"/>
@@ -11255,7 +11318,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="73"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="94"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11281,19 +11344,19 @@
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="J14" s="40" t="s">
+      <c r="K14" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="M14" s="40" t="s">
         <v>136</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="L14" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="M14" s="40" t="s">
-        <v>137</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="40"/>
@@ -11308,7 +11371,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="94"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11337,7 +11400,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="94"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11366,7 +11429,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="95"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -12136,7 +12199,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -12597,6 +12660,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12608,13 +12678,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12625,8 +12688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12658,43 +12721,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -12739,58 +12802,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="85"/>
+      <c r="M4" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="97" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="85" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -12815,23 +12878,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="85"/>
       <c r="K5" s="74" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="97"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12854,7 +12917,7 @@
       </c>
       <c r="H6" s="38"/>
       <c r="I6" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>77</v>
@@ -12879,7 +12942,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="73"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="93" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -12910,7 +12973,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="73"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="94"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -12939,7 +13002,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="73"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="94"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -12968,7 +13031,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="73"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="94"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -12997,7 +13060,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="94"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -13026,7 +13089,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="94"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -13055,7 +13118,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="73"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="93" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -13086,7 +13149,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="73"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="94"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -13115,7 +13178,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="94"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -13144,7 +13207,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="94"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -13173,7 +13236,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="95"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -14404,6 +14467,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14415,13 +14485,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14465,43 +14528,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -14546,58 +14609,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="79"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="85"/>
+      <c r="M4" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="79" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="97" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="79" t="s">
+      <c r="U4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="85" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -14622,23 +14685,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="79"/>
+      <c r="J5" s="85"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="97"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14664,7 +14727,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="75" t="s">
+      <c r="U6" s="93" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -14695,7 +14758,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="76"/>
+      <c r="U7" s="94"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -14724,7 +14787,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="76"/>
+      <c r="U8" s="94"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -14753,7 +14816,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="76"/>
+      <c r="U9" s="94"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -14782,7 +14845,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="76"/>
+      <c r="U10" s="94"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -14811,7 +14874,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="76"/>
+      <c r="U11" s="94"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -14840,7 +14903,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="75" t="s">
+      <c r="U12" s="93" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -14871,7 +14934,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="76"/>
+      <c r="U13" s="94"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -14900,7 +14963,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="76"/>
+      <c r="U14" s="94"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -14929,7 +14992,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="76"/>
+      <c r="U15" s="94"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -14958,7 +15021,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="77"/>
+      <c r="U16" s="95"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -16189,6 +16252,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16200,13 +16270,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_TechGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_TechGlobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="6"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="TG007X" sheetId="35" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="153">
   <si>
     <t>STT</t>
   </si>
@@ -429,9 +429,6 @@
     <t>NG,MCH</t>
   </si>
   <si>
-    <t>ID cũ: 000001204018255</t>
-  </si>
-  <si>
     <t>vnetgps.com,169,09004</t>
   </si>
   <si>
@@ -508,6 +505,9 @@
   </si>
   <si>
     <t>Imei mới: 868183033786554</t>
+  </si>
+  <si>
+    <t>Imei mới: 868183038053356</t>
   </si>
 </sst>
 </file>
@@ -967,7 +967,22 @@
     <xf numFmtId="4" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -989,21 +1004,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1312,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1345,43 +1345,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="89"/>
+      <c r="F2" s="94"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -1426,58 +1426,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="85" t="s">
+      <c r="A4" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85" t="s">
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="85" t="s">
+      <c r="K4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="85"/>
-      <c r="M4" s="91" t="s">
+      <c r="L4" s="89"/>
+      <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="91" t="s">
+      <c r="N4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="96" t="s">
+      <c r="P4" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="97" t="s">
+      <c r="S4" s="90" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="85" t="s">
+      <c r="U4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="85" t="s">
+      <c r="V4" s="89" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="90"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -1502,23 +1502,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="85"/>
+      <c r="J5" s="89"/>
       <c r="K5" s="74" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="85"/>
-      <c r="V5" s="85"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1528,7 +1528,9 @@
       <c r="B6" s="37">
         <v>44356</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44365</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>66</v>
       </c>
@@ -1568,7 +1570,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="73"/>
-      <c r="U6" s="93" t="s">
+      <c r="U6" s="85" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1583,7 +1585,9 @@
       <c r="B7" s="37">
         <v>44356</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44365</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>66</v>
       </c>
@@ -1625,7 +1629,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="73"/>
-      <c r="U7" s="94"/>
+      <c r="U7" s="86"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1638,7 +1642,9 @@
       <c r="B8" s="37">
         <v>44356</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37">
+        <v>44365</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>66</v>
       </c>
@@ -1650,7 +1656,7 @@
         <v>64</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I8" s="50" t="s">
         <v>95</v>
@@ -1682,7 +1688,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="73"/>
-      <c r="U8" s="94"/>
+      <c r="U8" s="86"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1695,7 +1701,9 @@
       <c r="B9" s="37">
         <v>44356</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="37">
+        <v>44365</v>
+      </c>
       <c r="D9" s="38" t="s">
         <v>66</v>
       </c>
@@ -1707,7 +1715,7 @@
         <v>67</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I9" s="50" t="s">
         <v>89</v>
@@ -1737,7 +1745,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="73"/>
-      <c r="U9" s="94"/>
+      <c r="U9" s="86"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1750,7 +1758,9 @@
       <c r="B10" s="37">
         <v>44356</v>
       </c>
-      <c r="C10" s="65"/>
+      <c r="C10" s="37">
+        <v>44365</v>
+      </c>
       <c r="D10" s="38" t="s">
         <v>66</v>
       </c>
@@ -1761,7 +1771,9 @@
       <c r="G10" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="I10" s="50" t="s">
         <v>73</v>
       </c>
@@ -1778,7 +1790,9 @@
       <c r="N10" s="51">
         <v>250000</v>
       </c>
-      <c r="O10" s="40"/>
+      <c r="O10" s="40" t="s">
+        <v>80</v>
+      </c>
       <c r="P10" s="1" t="s">
         <v>76</v>
       </c>
@@ -1790,7 +1804,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="94"/>
+      <c r="U10" s="86"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1803,7 +1817,9 @@
       <c r="B11" s="37">
         <v>44356</v>
       </c>
-      <c r="C11" s="65"/>
+      <c r="C11" s="37">
+        <v>44365</v>
+      </c>
       <c r="D11" s="38" t="s">
         <v>66</v>
       </c>
@@ -1843,7 +1859,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="94"/>
+      <c r="U11" s="86"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1856,7 +1872,9 @@
       <c r="B12" s="37">
         <v>44356</v>
       </c>
-      <c r="C12" s="65"/>
+      <c r="C12" s="37">
+        <v>44365</v>
+      </c>
       <c r="D12" s="38" t="s">
         <v>66</v>
       </c>
@@ -1896,7 +1914,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="73"/>
-      <c r="U12" s="93" t="s">
+      <c r="U12" s="85" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1911,7 +1929,9 @@
       <c r="B13" s="37">
         <v>44356</v>
       </c>
-      <c r="C13" s="65"/>
+      <c r="C13" s="37">
+        <v>44365</v>
+      </c>
       <c r="D13" s="38" t="s">
         <v>66</v>
       </c>
@@ -1951,7 +1971,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="73"/>
-      <c r="U13" s="94"/>
+      <c r="U13" s="86"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1964,7 +1984,9 @@
       <c r="B14" s="37">
         <v>44356</v>
       </c>
-      <c r="C14" s="65"/>
+      <c r="C14" s="37">
+        <v>44365</v>
+      </c>
       <c r="D14" s="38" t="s">
         <v>66</v>
       </c>
@@ -1987,7 +2009,7 @@
       </c>
       <c r="L14" s="40"/>
       <c r="M14" s="40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N14" s="51">
         <v>12000</v>
@@ -2006,7 +2028,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="94"/>
+      <c r="U14" s="86"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -2035,7 +2057,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="94"/>
+      <c r="U15" s="86"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -2064,7 +2086,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="95"/>
+      <c r="U16" s="87"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3295,13 +3317,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3313,6 +3328,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3323,8 +3345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3356,43 +3378,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="89"/>
+      <c r="F2" s="94"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -3437,58 +3459,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="85" t="s">
+      <c r="A4" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85" t="s">
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="85" t="s">
+      <c r="K4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="85"/>
-      <c r="M4" s="91" t="s">
+      <c r="L4" s="89"/>
+      <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="91" t="s">
+      <c r="N4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="96" t="s">
+      <c r="P4" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="97" t="s">
+      <c r="S4" s="90" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="85" t="s">
+      <c r="U4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="85" t="s">
+      <c r="V4" s="89" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="90"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -3513,23 +3535,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="85"/>
+      <c r="J5" s="89"/>
       <c r="K5" s="74" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="85"/>
-      <c r="V5" s="85"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3539,7 +3561,9 @@
       <c r="B6" s="37">
         <v>44356</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44365</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>44</v>
       </c>
@@ -3581,7 +3605,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="73"/>
-      <c r="U6" s="93" t="s">
+      <c r="U6" s="85" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3596,7 +3620,9 @@
       <c r="B7" s="37">
         <v>44356</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44365</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>44</v>
       </c>
@@ -3636,7 +3662,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="73"/>
-      <c r="U7" s="94"/>
+      <c r="U7" s="86"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3649,7 +3675,9 @@
       <c r="B8" s="76">
         <v>44356</v>
       </c>
-      <c r="C8" s="76"/>
+      <c r="C8" s="37">
+        <v>44365</v>
+      </c>
       <c r="D8" s="77" t="s">
         <v>44</v>
       </c>
@@ -3672,11 +3700,11 @@
       </c>
       <c r="L8" s="77"/>
       <c r="M8" s="77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N8" s="81"/>
       <c r="O8" s="77" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P8" s="77" t="s">
         <v>76</v>
@@ -3689,7 +3717,7 @@
       </c>
       <c r="S8" s="75"/>
       <c r="T8" s="73"/>
-      <c r="U8" s="94"/>
+      <c r="U8" s="86"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3702,7 +3730,9 @@
       <c r="B9" s="37">
         <v>44356</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="37">
+        <v>44365</v>
+      </c>
       <c r="D9" s="38" t="s">
         <v>44</v>
       </c>
@@ -3742,7 +3772,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="73"/>
-      <c r="U9" s="94"/>
+      <c r="U9" s="86"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3771,7 +3801,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="94"/>
+      <c r="U10" s="86"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3800,7 +3830,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="94"/>
+      <c r="U11" s="86"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3829,7 +3859,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="73"/>
-      <c r="U12" s="93" t="s">
+      <c r="U12" s="85" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3860,7 +3890,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="73"/>
-      <c r="U13" s="94"/>
+      <c r="U13" s="86"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3889,7 +3919,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="94"/>
+      <c r="U14" s="86"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3918,7 +3948,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="94"/>
+      <c r="U15" s="86"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3947,7 +3977,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="95"/>
+      <c r="U16" s="87"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5178,13 +5208,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5196,6 +5219,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5206,8 +5236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5239,43 +5269,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="89"/>
+      <c r="F2" s="94"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -5320,58 +5350,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="85" t="s">
+      <c r="A4" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85" t="s">
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="85" t="s">
+      <c r="K4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="85"/>
-      <c r="M4" s="91" t="s">
+      <c r="L4" s="89"/>
+      <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="91" t="s">
+      <c r="N4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="96" t="s">
+      <c r="P4" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="97" t="s">
+      <c r="S4" s="90" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="85" t="s">
+      <c r="U4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="85" t="s">
+      <c r="V4" s="89" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="90"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -5396,23 +5426,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="85"/>
+      <c r="J5" s="89"/>
       <c r="K5" s="70" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="85"/>
-      <c r="V5" s="85"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5422,7 +5452,9 @@
       <c r="B6" s="37">
         <v>44356</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44365</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>63</v>
       </c>
@@ -5464,7 +5496,7 @@
         <v>112</v>
       </c>
       <c r="T6" s="71"/>
-      <c r="U6" s="93" t="s">
+      <c r="U6" s="85" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5495,7 +5527,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="71"/>
-      <c r="U7" s="94"/>
+      <c r="U7" s="86"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5524,7 +5556,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="71"/>
-      <c r="U8" s="94"/>
+      <c r="U8" s="86"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5553,7 +5585,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="71"/>
-      <c r="U9" s="94"/>
+      <c r="U9" s="86"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5582,7 +5614,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="71"/>
-      <c r="U10" s="94"/>
+      <c r="U10" s="86"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5611,7 +5643,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="71"/>
-      <c r="U11" s="94"/>
+      <c r="U11" s="86"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5640,7 +5672,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="71"/>
-      <c r="U12" s="93" t="s">
+      <c r="U12" s="85" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5671,7 +5703,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="71"/>
-      <c r="U13" s="94"/>
+      <c r="U13" s="86"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5700,7 +5732,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="71"/>
-      <c r="U14" s="94"/>
+      <c r="U14" s="86"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5729,7 +5761,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="94"/>
+      <c r="U15" s="86"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5758,7 +5790,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="95"/>
+      <c r="U16" s="87"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6989,6 +7021,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7000,13 +7039,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7018,7 +7050,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7050,43 +7082,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="89"/>
+      <c r="F2" s="94"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -7131,58 +7163,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="85" t="s">
+      <c r="A4" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85" t="s">
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="85" t="s">
+      <c r="K4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="85"/>
-      <c r="M4" s="91" t="s">
+      <c r="L4" s="89"/>
+      <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="91" t="s">
+      <c r="N4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="96" t="s">
+      <c r="P4" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="97" t="s">
+      <c r="S4" s="90" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="85" t="s">
+      <c r="U4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="85" t="s">
+      <c r="V4" s="89" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="90"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -7207,23 +7239,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="85"/>
+      <c r="J5" s="89"/>
       <c r="K5" s="74" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="85"/>
-      <c r="V5" s="85"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7233,7 +7265,9 @@
       <c r="B6" s="37">
         <v>44356</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44365</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>68</v>
       </c>
@@ -7245,7 +7279,7 @@
         <v>64</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I6" s="50" t="s">
         <v>119</v>
@@ -7277,7 +7311,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="73"/>
-      <c r="U6" s="93" t="s">
+      <c r="U6" s="85" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7292,7 +7326,9 @@
       <c r="B7" s="37">
         <v>44356</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44365</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>68</v>
       </c>
@@ -7336,7 +7372,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="73"/>
-      <c r="U7" s="94"/>
+      <c r="U7" s="86"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7349,7 +7385,9 @@
       <c r="B8" s="37">
         <v>44356</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37">
+        <v>44365</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>68</v>
       </c>
@@ -7391,7 +7429,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="73"/>
-      <c r="U8" s="94"/>
+      <c r="U8" s="86"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7420,7 +7458,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="73"/>
-      <c r="U9" s="94"/>
+      <c r="U9" s="86"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7449,7 +7487,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="94"/>
+      <c r="U10" s="86"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7478,7 +7516,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="94"/>
+      <c r="U11" s="86"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7507,7 +7545,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="73"/>
-      <c r="U12" s="93" t="s">
+      <c r="U12" s="85" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7538,7 +7576,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="73"/>
-      <c r="U13" s="94"/>
+      <c r="U13" s="86"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7567,7 +7605,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="94"/>
+      <c r="U14" s="86"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7596,7 +7634,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="94"/>
+      <c r="U15" s="86"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7625,7 +7663,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="95"/>
+      <c r="U16" s="87"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8856,13 +8894,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8874,6 +8905,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8884,8 +8922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8917,43 +8955,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="89"/>
+      <c r="F2" s="94"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -8998,58 +9036,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="85" t="s">
+      <c r="A4" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85" t="s">
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="85" t="s">
+      <c r="K4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="85"/>
-      <c r="M4" s="91" t="s">
+      <c r="L4" s="89"/>
+      <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="91" t="s">
+      <c r="N4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="96" t="s">
+      <c r="P4" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="97" t="s">
+      <c r="S4" s="90" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="85" t="s">
+      <c r="U4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="85" t="s">
+      <c r="V4" s="89" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="90"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -9074,23 +9112,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="85"/>
+      <c r="J5" s="89"/>
       <c r="K5" s="74" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="85"/>
-      <c r="V5" s="85"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9100,7 +9138,9 @@
       <c r="B6" s="37">
         <v>44356</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44365</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>69</v>
       </c>
@@ -9111,9 +9151,7 @@
       <c r="G6" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="38" t="s">
-        <v>126</v>
-      </c>
+      <c r="H6" s="38"/>
       <c r="I6" s="50" t="s">
         <v>122</v>
       </c>
@@ -9128,7 +9166,9 @@
         <v>124</v>
       </c>
       <c r="N6" s="41"/>
-      <c r="O6" s="40"/>
+      <c r="O6" s="40" t="s">
+        <v>80</v>
+      </c>
       <c r="P6" s="40" t="s">
         <v>76</v>
       </c>
@@ -9140,7 +9180,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="73"/>
-      <c r="U6" s="93" t="s">
+      <c r="U6" s="85" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -9171,7 +9211,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="73"/>
-      <c r="U7" s="94"/>
+      <c r="U7" s="86"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -9200,7 +9240,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="73"/>
-      <c r="U8" s="94"/>
+      <c r="U8" s="86"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -9229,7 +9269,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="73"/>
-      <c r="U9" s="94"/>
+      <c r="U9" s="86"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -9258,7 +9298,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="94"/>
+      <c r="U10" s="86"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -9287,7 +9327,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="94"/>
+      <c r="U11" s="86"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -9316,7 +9356,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="73"/>
-      <c r="U12" s="93" t="s">
+      <c r="U12" s="85" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -9347,7 +9387,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="73"/>
-      <c r="U13" s="94"/>
+      <c r="U13" s="86"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -9376,7 +9416,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="94"/>
+      <c r="U14" s="86"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -9405,7 +9445,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="94"/>
+      <c r="U15" s="86"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -9434,7 +9474,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="95"/>
+      <c r="U16" s="87"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -10665,13 +10705,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10683,6 +10716,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10693,8 +10733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10726,43 +10766,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="89"/>
+      <c r="F2" s="94"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -10807,58 +10847,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="85" t="s">
+      <c r="A4" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85" t="s">
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="85" t="s">
+      <c r="K4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="85"/>
-      <c r="M4" s="91" t="s">
+      <c r="L4" s="89"/>
+      <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="91" t="s">
+      <c r="N4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="96" t="s">
+      <c r="P4" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="97" t="s">
+      <c r="S4" s="90" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="85" t="s">
+      <c r="U4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="85" t="s">
+      <c r="V4" s="89" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="90"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -10883,23 +10923,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="85"/>
+      <c r="J5" s="89"/>
       <c r="K5" s="74" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="85"/>
-      <c r="V5" s="85"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10909,7 +10949,9 @@
       <c r="B6" s="37">
         <v>44356</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44365</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>70</v>
       </c>
@@ -10922,24 +10964,26 @@
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>98</v>
       </c>
       <c r="K6" s="61" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L6" s="40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M6" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N6" s="41">
         <v>12000</v>
       </c>
-      <c r="O6" s="40"/>
+      <c r="O6" s="40" t="s">
+        <v>80</v>
+      </c>
       <c r="P6" s="40" t="s">
         <v>76</v>
       </c>
@@ -10951,7 +10995,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="73"/>
-      <c r="U6" s="93" t="s">
+      <c r="U6" s="85" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -10966,7 +11010,9 @@
       <c r="B7" s="76">
         <v>44356</v>
       </c>
-      <c r="C7" s="76"/>
+      <c r="C7" s="37">
+        <v>44365</v>
+      </c>
       <c r="D7" s="77" t="s">
         <v>70</v>
       </c>
@@ -10979,21 +11025,21 @@
       </c>
       <c r="H7" s="77"/>
       <c r="I7" s="79" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J7" s="77" t="s">
         <v>34</v>
       </c>
       <c r="K7" s="80" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L7" s="77"/>
       <c r="M7" s="77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N7" s="81"/>
       <c r="O7" s="77" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P7" s="77" t="s">
         <v>76</v>
@@ -11006,7 +11052,7 @@
       </c>
       <c r="S7" s="75"/>
       <c r="T7" s="73"/>
-      <c r="U7" s="94"/>
+      <c r="U7" s="86"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -11019,7 +11065,9 @@
       <c r="B8" s="37">
         <v>44356</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37">
+        <v>44365</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>70</v>
       </c>
@@ -11032,20 +11080,22 @@
       </c>
       <c r="H8" s="52"/>
       <c r="I8" s="50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J8" s="40" t="s">
         <v>91</v>
       </c>
       <c r="K8" s="60" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L8" s="40"/>
       <c r="M8" s="40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N8" s="41"/>
-      <c r="O8" s="40"/>
+      <c r="O8" s="40" t="s">
+        <v>80</v>
+      </c>
       <c r="P8" s="40" t="s">
         <v>76</v>
       </c>
@@ -11057,7 +11107,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="73"/>
-      <c r="U8" s="94"/>
+      <c r="U8" s="86"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -11070,7 +11120,9 @@
       <c r="B9" s="37">
         <v>44356</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="37">
+        <v>44365</v>
+      </c>
       <c r="D9" s="38" t="s">
         <v>70</v>
       </c>
@@ -11082,23 +11134,25 @@
         <v>64</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I9" s="50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J9" s="40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K9" s="40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L9" s="40"/>
       <c r="M9" s="40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
+      <c r="O9" s="40" t="s">
+        <v>80</v>
+      </c>
       <c r="P9" s="1" t="s">
         <v>76</v>
       </c>
@@ -11110,7 +11164,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="73"/>
-      <c r="U9" s="94"/>
+      <c r="U9" s="86"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -11123,7 +11177,9 @@
       <c r="B10" s="37">
         <v>44356</v>
       </c>
-      <c r="C10" s="65"/>
+      <c r="C10" s="37">
+        <v>44365</v>
+      </c>
       <c r="D10" s="38" t="s">
         <v>70</v>
       </c>
@@ -11136,20 +11192,22 @@
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L10" s="40"/>
       <c r="M10" s="40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
+      <c r="O10" s="40" t="s">
+        <v>80</v>
+      </c>
       <c r="P10" s="1" t="s">
         <v>76</v>
       </c>
@@ -11161,7 +11219,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="94"/>
+      <c r="U10" s="86"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -11174,7 +11232,9 @@
       <c r="B11" s="37">
         <v>44356</v>
       </c>
-      <c r="C11" s="65"/>
+      <c r="C11" s="37">
+        <v>44365</v>
+      </c>
       <c r="D11" s="38" t="s">
         <v>70</v>
       </c>
@@ -11187,22 +11247,24 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J11" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="M11" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="L11" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="M11" s="40" t="s">
-        <v>141</v>
-      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="40"/>
+      <c r="O11" s="40" t="s">
+        <v>80</v>
+      </c>
       <c r="P11" s="1" t="s">
         <v>76</v>
       </c>
@@ -11210,11 +11272,11 @@
         <v>84</v>
       </c>
       <c r="R11" s="38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="94"/>
+      <c r="U11" s="86"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -11227,7 +11289,9 @@
       <c r="B12" s="37">
         <v>44356</v>
       </c>
-      <c r="C12" s="65"/>
+      <c r="C12" s="37">
+        <v>44365</v>
+      </c>
       <c r="D12" s="38" t="s">
         <v>70</v>
       </c>
@@ -11240,20 +11304,22 @@
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="56" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J12" s="40" t="s">
         <v>91</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L12" s="40"/>
       <c r="M12" s="40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
+      <c r="O12" s="40" t="s">
+        <v>80</v>
+      </c>
       <c r="P12" s="1" t="s">
         <v>76</v>
       </c>
@@ -11265,7 +11331,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="73"/>
-      <c r="U12" s="93" t="s">
+      <c r="U12" s="85" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -11280,7 +11346,9 @@
       <c r="B13" s="37">
         <v>44356</v>
       </c>
-      <c r="C13" s="65"/>
+      <c r="C13" s="37">
+        <v>44365</v>
+      </c>
       <c r="D13" s="38" t="s">
         <v>70</v>
       </c>
@@ -11293,20 +11361,22 @@
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L13" s="40"/>
       <c r="M13" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="40"/>
+      <c r="O13" s="40" t="s">
+        <v>80</v>
+      </c>
       <c r="P13" s="1" t="s">
         <v>76</v>
       </c>
@@ -11318,7 +11388,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="73"/>
-      <c r="U13" s="94"/>
+      <c r="U13" s="86"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11331,7 +11401,9 @@
       <c r="B14" s="37">
         <v>44356</v>
       </c>
-      <c r="C14" s="65"/>
+      <c r="C14" s="37">
+        <v>44365</v>
+      </c>
       <c r="D14" s="38" t="s">
         <v>70</v>
       </c>
@@ -11344,22 +11416,24 @@
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="J14" s="40" t="s">
+      <c r="K14" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L14" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="M14" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="L14" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="M14" s="40" t="s">
-        <v>136</v>
-      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="40"/>
+      <c r="O14" s="40" t="s">
+        <v>80</v>
+      </c>
       <c r="P14" s="1" t="s">
         <v>76</v>
       </c>
@@ -11371,7 +11445,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="94"/>
+      <c r="U14" s="86"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11400,7 +11474,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="94"/>
+      <c r="U15" s="86"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11429,7 +11503,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="95"/>
+      <c r="U16" s="87"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -12660,13 +12734,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12678,6 +12745,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12688,8 +12762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12721,43 +12795,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="89"/>
+      <c r="F2" s="94"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="53"/>
@@ -12802,58 +12876,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="85" t="s">
+      <c r="A4" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85" t="s">
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="85" t="s">
+      <c r="K4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="85"/>
-      <c r="M4" s="91" t="s">
+      <c r="L4" s="89"/>
+      <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="91" t="s">
+      <c r="N4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="96" t="s">
+      <c r="P4" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="97" t="s">
+      <c r="S4" s="90" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="85" t="s">
+      <c r="U4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="85" t="s">
+      <c r="V4" s="89" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="90"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -12878,23 +12952,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="85"/>
+      <c r="J5" s="89"/>
       <c r="K5" s="74" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="85"/>
-      <c r="V5" s="85"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12904,7 +12978,9 @@
       <c r="B6" s="37">
         <v>44356</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44365</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>71</v>
       </c>
@@ -12917,7 +12993,7 @@
       </c>
       <c r="H6" s="38"/>
       <c r="I6" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>77</v>
@@ -12942,7 +13018,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="73"/>
-      <c r="U6" s="93" t="s">
+      <c r="U6" s="85" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -12973,7 +13049,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="73"/>
-      <c r="U7" s="94"/>
+      <c r="U7" s="86"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -13002,7 +13078,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="73"/>
-      <c r="U8" s="94"/>
+      <c r="U8" s="86"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -13031,7 +13107,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="73"/>
-      <c r="U9" s="94"/>
+      <c r="U9" s="86"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -13060,7 +13136,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="73"/>
-      <c r="U10" s="94"/>
+      <c r="U10" s="86"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -13089,7 +13165,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="73"/>
-      <c r="U11" s="94"/>
+      <c r="U11" s="86"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -13118,7 +13194,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="73"/>
-      <c r="U12" s="93" t="s">
+      <c r="U12" s="85" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -13149,7 +13225,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="73"/>
-      <c r="U13" s="94"/>
+      <c r="U13" s="86"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -13178,7 +13254,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="94"/>
+      <c r="U14" s="86"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -13207,7 +13283,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="94"/>
+      <c r="U15" s="86"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -13236,7 +13312,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="95"/>
+      <c r="U16" s="87"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -14467,13 +14543,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14485,6 +14554,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14528,43 +14604,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="89"/>
+      <c r="F2" s="94"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -14609,58 +14685,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="85" t="s">
+      <c r="A4" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85" t="s">
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="85" t="s">
+      <c r="K4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="85"/>
-      <c r="M4" s="91" t="s">
+      <c r="L4" s="89"/>
+      <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="91" t="s">
+      <c r="N4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="96" t="s">
+      <c r="P4" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="97" t="s">
+      <c r="S4" s="90" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="85" t="s">
+      <c r="U4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="85" t="s">
+      <c r="V4" s="89" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="90"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -14685,23 +14761,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="85"/>
+      <c r="J5" s="89"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="85"/>
-      <c r="V5" s="85"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14727,7 +14803,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="93" t="s">
+      <c r="U6" s="85" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -14758,7 +14834,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="94"/>
+      <c r="U7" s="86"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -14787,7 +14863,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="94"/>
+      <c r="U8" s="86"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -14816,7 +14892,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="94"/>
+      <c r="U9" s="86"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -14845,7 +14921,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="94"/>
+      <c r="U10" s="86"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -14874,7 +14950,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="94"/>
+      <c r="U11" s="86"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -14903,7 +14979,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="93" t="s">
+      <c r="U12" s="85" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -14934,7 +15010,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="94"/>
+      <c r="U13" s="86"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -14963,7 +15039,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="94"/>
+      <c r="U14" s="86"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -14992,7 +15068,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="94"/>
+      <c r="U15" s="86"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -15021,7 +15097,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="95"/>
+      <c r="U16" s="87"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -16252,13 +16328,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16270,6 +16339,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
